--- a/biology/Zoologie/Aphantomartus/Aphantomartus.xlsx
+++ b/biology/Zoologie/Aphantomartus/Aphantomartus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trigonomartus, Phrynomartus
 Aphantomartus est un genre fossile de trigonotarbides de la famille des Aphantomartidae.
@@ -512,11 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Aphantomartus est décrit en 1911 par le zoologiste britannique Reginald Innes Pocock (1863-1947)[1],[2]. 
-Fossiles
-Selon Paleobiology Database en 2023, le nombre de collections de fossiles est de dix-huit[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Aphantomartus est décrit en 1911 par le zoologiste britannique Reginald Innes Pocock (1863-1947),. 
 </t>
         </is>
       </c>
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les espèces de ce genre datent du Brigantien du Mississippien moyen du Carbonifère inférieur à l'Assélien du Cisuralien du Permien inférieur[3],[2].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, le nombre de collections de fossiles est de dix-huit.
 </t>
         </is>
       </c>
@@ -573,12 +591,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre datent du Brigantien du Mississippien moyen du Carbonifère inférieur à l'Assélien du Cisuralien du Permien inférieur,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aphantomartus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphantomartus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog (version 23.5, 2023)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog (version 23.5, 2023) :
 † Aphantomartus areolatus Pocock, 1911
 † Aphantomartus ilfeldicus (Scharf, 1924)
 † Aphantomartus pustulatus (Scudder, 1884)</t>
